--- a/biology/Médecine/Lanugo/Lanugo.xlsx
+++ b/biology/Médecine/Lanugo/Lanugo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lanugo est un duvet très fin qui couvre tout le corps du fœtus, à l'exception des paumes des mains et des plantes des pieds. Il apparaît à environ 18 semaines de grossesse.
-Un duvet similaire peut aussi apparaître chez les personnes présentant un trouble du comportement alimentaire de type anorexie mentale[1]. Il est la conséquence de la carence œstrogénique observée à la suite de l'amaigrissement où il est souvent associé à l'hypertrichose, à la déshydratation et à une chute des cheveux[réf. nécessaire].
-Le terme s'applique également au pelage des jeunes éléphants et des jeunes phoques (appelés blanchons) avant leur mue[2].
+Un duvet similaire peut aussi apparaître chez les personnes présentant un trouble du comportement alimentaire de type anorexie mentale. Il est la conséquence de la carence œstrogénique observée à la suite de l'amaigrissement où il est souvent associé à l'hypertrichose, à la déshydratation et à une chute des cheveux[réf. nécessaire].
+Le terme s'applique également au pelage des jeunes éléphants et des jeunes phoques (appelés blanchons) avant leur mue.
 </t>
         </is>
       </c>
